--- a/public/data/base-etiquetas.xlsx
+++ b/public/data/base-etiquetas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allocator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E7EE5B-3E88-4A13-AAB7-4288B0E1750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D388CCD2-87AE-4558-831E-9E1B30E0D4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{0068424B-103A-48F9-A067-83889020373D}"/>
   </bookViews>
@@ -41,24 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
-    <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>DESCRIPCION</t>
-  </si>
-  <si>
-    <t>MENUDEO</t>
-  </si>
-  <si>
-    <t>MAYOREO</t>
-  </si>
-  <si>
-    <t>CAJA</t>
-  </si>
-  <si>
-    <t>SOCIO</t>
-  </si>
-  <si>
     <t>PZ_MENUDEO</t>
   </si>
   <si>
@@ -155,9 +137,6 @@
     <t>P-0951 PLUMINES DOBLE PUNTA CON 36 COLORES CON UNA PZ O CAJA CON 48 PQTS</t>
   </si>
   <si>
-    <t>UPC</t>
-  </si>
-  <si>
     <t>80ALEJANDRO02</t>
   </si>
   <si>
@@ -186,6 +165,27 @@
   </si>
   <si>
     <t>8003003ZB0302</t>
+  </si>
+  <si>
+    <t>codigo</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>codigo_barras</t>
+  </si>
+  <si>
+    <t>precio_menudeo</t>
+  </si>
+  <si>
+    <t>precio_mayoreo</t>
+  </si>
+  <si>
+    <t>precio_caja</t>
+  </si>
+  <si>
+    <t>precio_socio</t>
   </si>
 </sst>
 </file>
@@ -218,9 +218,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,7 +557,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -569,45 +568,45 @@
   <sheetData>
     <row r="1" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>180.46</v>
@@ -618,7 +617,7 @@
       <c r="F2">
         <v>138.82</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
         <v>153.25</v>
       </c>
       <c r="H2">
@@ -633,10 +632,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>8809627021076</v>
@@ -645,12 +644,12 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>3.87</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>3.56</v>
       </c>
       <c r="H3">
@@ -662,13 +661,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>14.95</v>
@@ -679,7 +678,7 @@
       <c r="F4">
         <v>9.34</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
         <v>11.17</v>
       </c>
       <c r="H4">
@@ -694,13 +693,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>10.92</v>
@@ -711,7 +710,7 @@
       <c r="F5">
         <v>6.82</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>8.16</v>
       </c>
       <c r="H5">
@@ -726,24 +725,24 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D6">
         <v>46.52</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>38.76</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>35.65</v>
       </c>
       <c r="H6">
@@ -755,24 +754,24 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>109.85</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7">
         <v>91.55</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>84.22</v>
       </c>
       <c r="H7">
@@ -784,24 +783,24 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>32.340000000000003</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
         <v>29.75</v>
       </c>
       <c r="J8">
@@ -810,24 +809,24 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>31.05</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
         <v>28.56</v>
       </c>
       <c r="J9">
@@ -836,24 +835,24 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F10">
         <v>31.05</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
         <v>28.56</v>
       </c>
       <c r="J10">
@@ -862,10 +861,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>8880000000130</v>
@@ -879,7 +878,7 @@
       <c r="F11">
         <v>13.84</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
         <v>16.55</v>
       </c>
       <c r="H11">
@@ -894,10 +893,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>7068808001066</v>
@@ -911,7 +910,7 @@
       <c r="F12">
         <v>19.86</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
         <v>21.92</v>
       </c>
       <c r="H12">
@@ -926,13 +925,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>32.619999999999997</v>
@@ -943,7 +942,7 @@
       <c r="F13">
         <v>25.09</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
         <v>27.7</v>
       </c>
       <c r="H13">
@@ -958,24 +957,24 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>30</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
         <v>27.6</v>
       </c>
       <c r="J14">
@@ -984,24 +983,24 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>6902354209518</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15">
         <v>45</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
         <v>41.4</v>
       </c>
       <c r="J15">
